--- a/testCase/sqsrmyyadmin/doctorManage/searchDoctor.xlsx
+++ b/testCase/sqsrmyyadmin/doctorManage/searchDoctor.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>isRun</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -40,11 +40,7 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>贾西贝</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>西</t>
+    <t>宁璟</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -984,7 +980,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1021,7 +1017,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E2" s="1"/>
       <c r="I2" s="1"/>
